--- a/models/tbc/data/asunciones.xlsx
+++ b/models/tbc/data/asunciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>PARAMETROS GLOBALES</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Meses que reciben tratamiento el grupo de pacientes que mueren:</t>
   </si>
   <si>
-    <t>Guia de practica clinica</t>
-  </si>
-  <si>
     <t>Induccion duracion:</t>
   </si>
   <si>
@@ -73,6 +70,22 @@
   </si>
   <si>
     <t>Duración tratamiento:</t>
+  </si>
+  <si>
+    <t>Opinión de experto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPS: Manual operativo de la OMS sobre la tuberculosis. Módulo 4: Tratamiento. Tratamiento de la tuberculosis farmacosensible. OPS; 2023. doi:10.37774/9789275327364
+</t>
+  </si>
+  <si>
+    <t>Fecha del valor</t>
+  </si>
+  <si>
+    <t>Fecha actualización</t>
+  </si>
+  <si>
+    <t>Fuente</t>
   </si>
 </sst>
 </file>
@@ -108,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,31 +405,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -423,10 +442,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -434,34 +459,58 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.25</v>
@@ -470,20 +519,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -492,9 +547,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -503,9 +558,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -514,9 +569,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -525,20 +580,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2023</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0.8</v>
@@ -547,18 +608,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2023</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>